--- a/BubbleSheet/res.xlsx
+++ b/BubbleSheet/res.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,151 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Q27</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Q28</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Q29</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Q30</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Q31</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Q32</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Q33</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Q34</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Q35</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Q36</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Q37</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Q38</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Q39</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Q40</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Q41</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Q42</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Q43</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Q44</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
@@ -526,49 +671,133 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -593,40 +822,124 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -642,49 +955,133 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6</v>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -703,46 +1100,130 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>7</v>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -758,37 +1239,37 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -800,7 +1281,91 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BubbleSheet/res.xlsx
+++ b/BubbleSheet/res.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,151 +509,6 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Q16</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Q17</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Q18</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Q19</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Q20</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Q21</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Q22</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Q23</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Q24</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Q25</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Q26</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Q27</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Q28</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Q29</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Q30</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Q31</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Q32</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Q33</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Q34</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Q35</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Q36</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Q37</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Q38</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Q39</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Q40</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Q41</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Q42</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Q43</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Q44</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
           <t>total</t>
         </is>
       </c>
@@ -671,133 +526,49 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -831,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -846,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -855,91 +626,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -955,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -973,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -991,97 +678,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1100,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1118,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1127,103 +730,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1239,25 +758,25 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1266,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1281,91 +800,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
